--- a/Templates/Resoluciones.xlsx
+++ b/Templates/Resoluciones.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg_fa\OneDrive\Escritorio\CuotasAuto\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="14115" windowHeight="4695"/>
   </bookViews>
@@ -85,7 +90,7 @@
     <t>Pato, Elsa - DNI. Nº 22.333.444</t>
   </si>
   <si>
-    <t>Columna1</t>
+    <t>Nº de Actuación</t>
   </si>
 </sst>
 </file>
@@ -745,6 +750,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -753,7 +761,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:N36" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:N36"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Columna1" dataDxfId="13"/>
+    <tableColumn id="1" name="Nº de Actuación" dataDxfId="13"/>
     <tableColumn id="2" name="Institución" dataDxfId="12"/>
     <tableColumn id="3" name="C.U.I.T" dataDxfId="11"/>
     <tableColumn id="4" name="Domicilio" dataDxfId="10"/>
@@ -815,7 +823,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -850,7 +858,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1062,7 +1070,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
